--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16316.52498500258</v>
+        <v>3246988.472015514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16316.52498500258</v>
+        <v>3246988.472015514</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50275.6239657973</v>
+        <v>3095113.84627329</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50275.6239657973</v>
+        <v>3095113.84627329</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190940909.971341</v>
+        <v>48118145.63740703</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12989.1702813796</v>
+        <v>1336357.607923733</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23513.32999889547</v>
+        <v>2255041.929238861</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34042.21042748616</v>
+        <v>3173726.250553993</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45177.69228434358</v>
+        <v>4091022.172731471</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56313.5803280251</v>
+        <v>5008398.926086951</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67449.46837170664</v>
+        <v>5925775.679442427</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78585.35641538816</v>
+        <v>6843152.432797904</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89721.24445906974</v>
+        <v>7760529.18615338</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100906.0904406963</v>
+        <v>8659922.005021</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112121.2865619168</v>
+        <v>9565580.02459841</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123335.5108404122</v>
+        <v>10471044.64747352</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134549.7351189076</v>
+        <v>11376509.27034864</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145763.9593974029</v>
+        <v>12281973.89322376</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156978.1836758983</v>
+        <v>13187438.51609888</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168192.4079543937</v>
+        <v>14092903.13897401</v>
       </c>
     </row>
   </sheetData>
